--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>459.5553626666667</v>
+        <v>5.599488</v>
       </c>
       <c r="H2">
-        <v>1378.666088</v>
+        <v>16.798464</v>
       </c>
       <c r="I2">
-        <v>0.997342491800172</v>
+        <v>0.8205563069596913</v>
       </c>
       <c r="J2">
-        <v>0.997342491800172</v>
+        <v>0.8205563069596913</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.913163</v>
+        <v>19.98610666666667</v>
       </c>
       <c r="N2">
-        <v>221.739489</v>
+        <v>59.95832</v>
       </c>
       <c r="O2">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="P2">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="Q2">
-        <v>33967.19042830545</v>
+        <v>111.91196444672</v>
       </c>
       <c r="R2">
-        <v>305704.713854749</v>
+        <v>1007.20768002048</v>
       </c>
       <c r="S2">
-        <v>0.6080130507702992</v>
+        <v>0.2436267049355193</v>
       </c>
       <c r="T2">
-        <v>0.6080130507702992</v>
+        <v>0.2436267049355193</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>459.5553626666667</v>
+        <v>5.599488</v>
       </c>
       <c r="H3">
-        <v>1378.666088</v>
+        <v>16.798464</v>
       </c>
       <c r="I3">
-        <v>0.997342491800172</v>
+        <v>0.8205563069596913</v>
       </c>
       <c r="J3">
-        <v>0.997342491800172</v>
+        <v>0.8205563069596913</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>94.201697</v>
       </c>
       <c r="O3">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712238</v>
       </c>
       <c r="P3">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712239</v>
       </c>
       <c r="Q3">
-        <v>14430.29834288348</v>
+        <v>175.827090643712</v>
       </c>
       <c r="R3">
-        <v>129872.6850859513</v>
+        <v>1582.443815793408</v>
       </c>
       <c r="S3">
-        <v>0.2583024856736698</v>
+        <v>0.3827667126004229</v>
       </c>
       <c r="T3">
-        <v>0.2583024856736697</v>
+        <v>0.3827667126004231</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>459.5553626666667</v>
+        <v>5.599488</v>
       </c>
       <c r="H4">
-        <v>1378.666088</v>
+        <v>16.798464</v>
       </c>
       <c r="I4">
-        <v>0.997342491800172</v>
+        <v>0.8205563069596913</v>
       </c>
       <c r="J4">
-        <v>0.997342491800172</v>
+        <v>0.8205563069596913</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>47.784912</v>
       </c>
       <c r="O4">
-        <v>0.1313760883883565</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="P4">
-        <v>0.1313760883883564</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="Q4">
-        <v>7319.937521384917</v>
+        <v>89.190347108352</v>
       </c>
       <c r="R4">
-        <v>65879.43769246426</v>
+        <v>802.7131239751679</v>
       </c>
       <c r="S4">
-        <v>0.1310269553562031</v>
+        <v>0.194162889423749</v>
       </c>
       <c r="T4">
-        <v>0.131026955356203</v>
+        <v>0.194162889423749</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.673579</v>
       </c>
       <c r="I5">
-        <v>0.002657508199827995</v>
+        <v>0.1794436930403087</v>
       </c>
       <c r="J5">
-        <v>0.002657508199827995</v>
+        <v>0.1794436930403087</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>73.913163</v>
+        <v>19.98610666666667</v>
       </c>
       <c r="N5">
-        <v>221.739489</v>
+        <v>59.95832</v>
       </c>
       <c r="O5">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="P5">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="Q5">
-        <v>90.50861447345901</v>
+        <v>24.47351391414222</v>
       </c>
       <c r="R5">
-        <v>814.577530261131</v>
+        <v>220.26162522728</v>
       </c>
       <c r="S5">
-        <v>0.001620105110640616</v>
+        <v>0.05327760604126188</v>
       </c>
       <c r="T5">
-        <v>0.001620105110640616</v>
+        <v>0.05327760604126188</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.673579</v>
       </c>
       <c r="I6">
-        <v>0.002657508199827995</v>
+        <v>0.1794436930403087</v>
       </c>
       <c r="J6">
-        <v>0.002657508199827995</v>
+        <v>0.1794436930403087</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>94.201697</v>
       </c>
       <c r="O6">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712238</v>
       </c>
       <c r="P6">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712239</v>
       </c>
       <c r="Q6">
         <v>38.45081954039589</v>
@@ -818,10 +818,10 @@
         <v>346.057375863563</v>
       </c>
       <c r="S6">
-        <v>0.0006882700570339945</v>
+        <v>0.08370549577080079</v>
       </c>
       <c r="T6">
-        <v>0.0006882700570339943</v>
+        <v>0.08370549577080082</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.673579</v>
       </c>
       <c r="I7">
-        <v>0.002657508199827995</v>
+        <v>0.1794436930403087</v>
       </c>
       <c r="J7">
-        <v>0.002657508199827995</v>
+        <v>0.1794436930403087</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>47.784912</v>
       </c>
       <c r="O7">
-        <v>0.1313760883883565</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="P7">
-        <v>0.1313760883883564</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="Q7">
         <v>19.50462769333867</v>
@@ -880,10 +880,10 @@
         <v>175.541649240048</v>
       </c>
       <c r="S7">
-        <v>0.0003491330321533847</v>
+        <v>0.042460591228246</v>
       </c>
       <c r="T7">
-        <v>0.0003491330321533847</v>
+        <v>0.04246059122824601</v>
       </c>
     </row>
   </sheetData>
